--- a/grupos/6ASV - Estadisticos 20242.xlsx
+++ b/grupos/6ASV - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
   <si>
     <t>Materia</t>
   </si>
@@ -191,40 +191,22 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>ELIZALDE</t>
+  </si>
+  <si>
     <t>VELAZQUEZ</t>
   </si>
   <si>
-    <t>ELIZALDE</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>QUESADA</t>
+    <t>MORALES</t>
   </si>
   <si>
     <t>PAZ</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>OLGUIN</t>
+    <t>JOSE CARMELO</t>
   </si>
   <si>
     <t>GUILLERMO ALEXANDER</t>
-  </si>
-  <si>
-    <t>JOSE CARMELO</t>
-  </si>
-  <si>
-    <t>ANGEL DE JESUS</t>
-  </si>
-  <si>
-    <t>JARED DE JESUS</t>
   </si>
 </sst>
 </file>
@@ -738,19 +720,19 @@
         <v>-1</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -780,13 +762,13 @@
         <v>10</v>
       </c>
       <c r="W4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X4">
         <v>10</v>
       </c>
       <c r="Y4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -815,19 +797,19 @@
         <v>-1</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -863,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="Y5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -892,19 +874,19 @@
         <v>-1</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -934,13 +916,13 @@
         <v>10</v>
       </c>
       <c r="W6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X6">
         <v>10</v>
       </c>
       <c r="Y6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -969,19 +951,19 @@
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1011,13 +993,13 @@
         <v>10</v>
       </c>
       <c r="W7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1046,19 +1028,19 @@
         <v>-1</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1088,13 +1070,13 @@
         <v>10</v>
       </c>
       <c r="W8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X8">
         <v>10</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1123,19 +1105,19 @@
         <v>-1</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1159,19 +1141,19 @@
         <v>7</v>
       </c>
       <c r="U9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V9">
         <v>10</v>
       </c>
       <c r="W9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X9">
         <v>10</v>
       </c>
       <c r="Y9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1200,19 +1182,19 @@
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1236,19 +1218,19 @@
         <v>7</v>
       </c>
       <c r="U10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V10">
         <v>10</v>
       </c>
       <c r="W10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X10">
         <v>10</v>
       </c>
       <c r="Y10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1277,19 +1259,19 @@
         <v>-1</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1322,10 +1304,10 @@
         <v>5</v>
       </c>
       <c r="X11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1354,19 +1336,19 @@
         <v>-1</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1396,13 +1378,13 @@
         <v>10</v>
       </c>
       <c r="W12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X12">
         <v>10</v>
       </c>
       <c r="Y12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1431,19 +1413,19 @@
         <v>-1</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1473,13 +1455,13 @@
         <v>10</v>
       </c>
       <c r="W13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X13">
         <v>10</v>
       </c>
       <c r="Y13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1508,19 +1490,19 @@
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N14">
         <v>-1</v>
@@ -1544,19 +1526,19 @@
         <v>7</v>
       </c>
       <c r="U14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V14">
         <v>10</v>
       </c>
       <c r="W14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X14">
         <v>10</v>
       </c>
       <c r="Y14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1585,19 +1567,19 @@
         <v>-1</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1621,19 +1603,19 @@
         <v>6</v>
       </c>
       <c r="U15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V15">
         <v>10</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y15">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1662,19 +1644,19 @@
         <v>-1</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1698,19 +1680,19 @@
         <v>7</v>
       </c>
       <c r="U16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V16">
         <v>10</v>
       </c>
       <c r="W16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X16">
         <v>10</v>
       </c>
       <c r="Y16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1739,19 +1721,19 @@
         <v>-1</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1781,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="W17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X17">
         <v>8</v>
@@ -1816,19 +1798,19 @@
         <v>-1</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1852,19 +1834,19 @@
         <v>7</v>
       </c>
       <c r="U18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V18">
         <v>10</v>
       </c>
       <c r="W18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X18">
         <v>10</v>
       </c>
       <c r="Y18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1893,19 +1875,19 @@
         <v>-1</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1935,13 +1917,13 @@
         <v>10</v>
       </c>
       <c r="W19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X19">
         <v>10</v>
       </c>
       <c r="Y19">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1970,19 +1952,19 @@
         <v>-1</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -2006,19 +1988,19 @@
         <v>6</v>
       </c>
       <c r="U20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V20">
         <v>10</v>
       </c>
       <c r="W20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y20">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2047,19 +2029,19 @@
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>-1</v>
@@ -2089,13 +2071,13 @@
         <v>10</v>
       </c>
       <c r="W21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X21">
         <v>10</v>
       </c>
       <c r="Y21">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2124,19 +2106,19 @@
         <v>-1</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2201,19 +2183,19 @@
         <v>-1</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2237,19 +2219,19 @@
         <v>6</v>
       </c>
       <c r="U23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V23">
         <v>7</v>
       </c>
       <c r="W23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X23">
         <v>10</v>
       </c>
       <c r="Y23">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2278,19 +2260,19 @@
         <v>-1</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2355,19 +2337,19 @@
         <v>-1</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>-1</v>
@@ -2397,7 +2379,7 @@
         <v>10</v>
       </c>
       <c r="W25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X25">
         <v>9</v>
@@ -2432,19 +2414,19 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2468,19 +2450,19 @@
         <v>7</v>
       </c>
       <c r="U26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V26">
         <v>10</v>
       </c>
       <c r="W26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X26">
         <v>10</v>
       </c>
       <c r="Y26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2509,19 +2491,19 @@
         <v>-1</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2545,19 +2527,19 @@
         <v>7</v>
       </c>
       <c r="U27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V27">
         <v>10</v>
       </c>
       <c r="W27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="X27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y27">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2586,19 +2568,19 @@
         <v>-1</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2631,7 +2613,7 @@
         <v>5</v>
       </c>
       <c r="X28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y28">
         <v>5</v>
@@ -2962,7 +2944,7 @@
         <v>100</v>
       </c>
       <c r="L7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M7">
         <v>100</v>
@@ -2980,7 +2962,7 @@
         <v>100</v>
       </c>
       <c r="R7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="S7">
         <v>100</v>
@@ -3021,7 +3003,7 @@
         <v>100</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M8">
         <v>100</v>
@@ -3039,7 +3021,7 @@
         <v>100</v>
       </c>
       <c r="R8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S8">
         <v>100</v>
@@ -3198,7 +3180,7 @@
         <v>100</v>
       </c>
       <c r="L11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M11">
         <v>100</v>
@@ -3216,7 +3198,7 @@
         <v>100</v>
       </c>
       <c r="R11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S11">
         <v>100</v>
@@ -3316,7 +3298,7 @@
         <v>100</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M13">
         <v>100</v>
@@ -3334,7 +3316,7 @@
         <v>100</v>
       </c>
       <c r="R13">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S13">
         <v>100</v>
@@ -3434,7 +3416,7 @@
         <v>100</v>
       </c>
       <c r="L15">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M15">
         <v>100</v>
@@ -3452,7 +3434,7 @@
         <v>100</v>
       </c>
       <c r="R15">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="S15">
         <v>100</v>
@@ -3552,7 +3534,7 @@
         <v>100</v>
       </c>
       <c r="L17">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M17">
         <v>100</v>
@@ -3570,7 +3552,7 @@
         <v>100</v>
       </c>
       <c r="R17">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="S17">
         <v>100</v>
@@ -3906,7 +3888,7 @@
         <v>100</v>
       </c>
       <c r="L23">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="M23">
         <v>100</v>
@@ -3924,7 +3906,7 @@
         <v>100</v>
       </c>
       <c r="R23">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="S23">
         <v>100</v>
@@ -4201,7 +4183,7 @@
         <v>100</v>
       </c>
       <c r="L28">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M28">
         <v>100</v>
@@ -4219,7 +4201,7 @@
         <v>100</v>
       </c>
       <c r="R28">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="S28">
         <v>100</v>
@@ -4282,7 +4264,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
@@ -4291,19 +4273,19 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -4314,7 +4296,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -4335,7 +4317,7 @@
         <v>8</v>
       </c>
       <c r="H3">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -4346,7 +4328,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
@@ -4367,7 +4349,7 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4516,7 +4498,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4551,22 +4533,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22330051920314</v>
+        <v>22330051920298</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
       <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -4574,22 +4556,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22330051920314</v>
+        <v>22330051920298</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
       <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -4597,16 +4579,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>22330051920314</v>
+        <v>22330051920298</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
         <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -4620,16 +4602,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>22330051920314</v>
+        <v>22330051920298</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -4643,22 +4625,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>22330051920298</v>
+        <v>22330051920314</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
       </c>
       <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
         <v>62</v>
       </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -4666,22 +4648,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>22330051920298</v>
+        <v>22330051920314</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
       </c>
       <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="D7" t="s">
-        <v>66</v>
-      </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -4689,16 +4671,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>22330051920298</v>
+        <v>22330051920314</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
       </c>
       <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
         <v>62</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -4712,47 +4694,24 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>22330051920303</v>
+        <v>22330051920314</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
       </c>
       <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>22330051920312</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
         <v>5</v>
       </c>
     </row>

--- a/grupos/6ASV - Estadisticos 20242.xlsx
+++ b/grupos/6ASV - Estadisticos 20242.xlsx
@@ -717,7 +717,7 @@
         <v>8</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -753,7 +753,7 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U4">
         <v>10</v>
@@ -794,7 +794,7 @@
         <v>9</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <v>10</v>
@@ -830,7 +830,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U5">
         <v>10</v>
@@ -871,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>10</v>
@@ -907,7 +907,7 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U6">
         <v>10</v>
@@ -948,7 +948,7 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>10</v>
@@ -1025,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <v>10</v>
@@ -1061,7 +1061,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U8">
         <v>10</v>
@@ -1102,7 +1102,7 @@
         <v>8</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -1138,7 +1138,7 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U9">
         <v>9</v>
@@ -1179,7 +1179,7 @@
         <v>7</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I10">
         <v>9</v>
@@ -1215,7 +1215,7 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U10">
         <v>9</v>
@@ -1256,7 +1256,7 @@
         <v>6</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -1333,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <v>10</v>
@@ -1369,7 +1369,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U12">
         <v>10</v>
@@ -1410,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>10</v>
@@ -1446,7 +1446,7 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U13">
         <v>10</v>
@@ -1487,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -1523,7 +1523,7 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>10</v>
@@ -1564,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <v>8</v>
@@ -1600,7 +1600,7 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U15">
         <v>7</v>
@@ -1641,7 +1641,7 @@
         <v>7</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>9</v>
@@ -1677,7 +1677,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U16">
         <v>9</v>
@@ -1718,7 +1718,7 @@
         <v>8</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I17">
         <v>10</v>
@@ -1754,7 +1754,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U17">
         <v>10</v>
@@ -1795,7 +1795,7 @@
         <v>8</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <v>10</v>
@@ -1831,7 +1831,7 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U18">
         <v>10</v>
@@ -1872,7 +1872,7 @@
         <v>8</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -1908,7 +1908,7 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U19">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>6</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <v>10</v>
@@ -1985,7 +1985,7 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U20">
         <v>9</v>
@@ -2026,7 +2026,7 @@
         <v>8</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <v>10</v>
@@ -2062,7 +2062,7 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U21">
         <v>10</v>
@@ -2103,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>10</v>
@@ -2139,7 +2139,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U22">
         <v>10</v>
@@ -2180,7 +2180,7 @@
         <v>5</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -2216,7 +2216,7 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U23">
         <v>8</v>
@@ -2257,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I24">
         <v>10</v>
@@ -2293,7 +2293,7 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U24">
         <v>10</v>
@@ -2334,7 +2334,7 @@
         <v>8</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <v>10</v>
@@ -2370,7 +2370,7 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U25">
         <v>10</v>
@@ -2411,7 +2411,7 @@
         <v>7</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <v>8</v>
@@ -2447,7 +2447,7 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U26">
         <v>7</v>
@@ -2488,7 +2488,7 @@
         <v>6</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I27">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U27">
         <v>7</v>
@@ -2565,7 +2565,7 @@
         <v>5</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I28">
         <v>5</v>
@@ -2755,7 +2755,7 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="I4">
         <v>100</v>
@@ -2773,7 +2773,7 @@
         <v>100</v>
       </c>
       <c r="N4">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -2814,7 +2814,7 @@
         <v>100</v>
       </c>
       <c r="H5">
-        <v>93.3</v>
+        <v>96</v>
       </c>
       <c r="I5">
         <v>100</v>
@@ -2832,7 +2832,7 @@
         <v>100</v>
       </c>
       <c r="N5">
-        <v>93.3</v>
+        <v>96</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -2873,7 +2873,7 @@
         <v>100</v>
       </c>
       <c r="H6">
-        <v>93.3</v>
+        <v>88</v>
       </c>
       <c r="I6">
         <v>100</v>
@@ -2891,7 +2891,7 @@
         <v>100</v>
       </c>
       <c r="N6">
-        <v>93.3</v>
+        <v>88</v>
       </c>
       <c r="O6">
         <v>100</v>
@@ -2932,7 +2932,7 @@
         <v>100</v>
       </c>
       <c r="H7">
-        <v>86.7</v>
+        <v>84</v>
       </c>
       <c r="I7">
         <v>100</v>
@@ -2950,7 +2950,7 @@
         <v>100</v>
       </c>
       <c r="N7">
-        <v>86.7</v>
+        <v>84</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -2991,7 +2991,7 @@
         <v>100</v>
       </c>
       <c r="H8">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="I8">
         <v>100</v>
@@ -3009,7 +3009,7 @@
         <v>100</v>
       </c>
       <c r="N8">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="O8">
         <v>100</v>
@@ -3050,7 +3050,7 @@
         <v>100</v>
       </c>
       <c r="H9">
-        <v>93.3</v>
+        <v>96</v>
       </c>
       <c r="I9">
         <v>100</v>
@@ -3068,7 +3068,7 @@
         <v>100</v>
       </c>
       <c r="N9">
-        <v>93.3</v>
+        <v>96</v>
       </c>
       <c r="O9">
         <v>100</v>
@@ -3109,7 +3109,7 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="I10">
         <v>100</v>
@@ -3127,7 +3127,7 @@
         <v>100</v>
       </c>
       <c r="N10">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="O10">
         <v>100</v>
@@ -3168,7 +3168,7 @@
         <v>100</v>
       </c>
       <c r="H11">
-        <v>93.3</v>
+        <v>88</v>
       </c>
       <c r="I11">
         <v>100</v>
@@ -3186,7 +3186,7 @@
         <v>100</v>
       </c>
       <c r="N11">
-        <v>93.3</v>
+        <v>88</v>
       </c>
       <c r="O11">
         <v>100</v>
@@ -3227,7 +3227,7 @@
         <v>100</v>
       </c>
       <c r="H12">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="I12">
         <v>100</v>
@@ -3245,7 +3245,7 @@
         <v>100</v>
       </c>
       <c r="N12">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="O12">
         <v>100</v>
@@ -3286,7 +3286,7 @@
         <v>100</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I13">
         <v>100</v>
@@ -3304,7 +3304,7 @@
         <v>100</v>
       </c>
       <c r="N13">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O13">
         <v>100</v>
@@ -3345,7 +3345,7 @@
         <v>100</v>
       </c>
       <c r="H14">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="I14">
         <v>100</v>
@@ -3363,7 +3363,7 @@
         <v>100</v>
       </c>
       <c r="N14">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="O14">
         <v>100</v>
@@ -3404,7 +3404,7 @@
         <v>100</v>
       </c>
       <c r="H15">
-        <v>93.3</v>
+        <v>88</v>
       </c>
       <c r="I15">
         <v>100</v>
@@ -3422,7 +3422,7 @@
         <v>100</v>
       </c>
       <c r="N15">
-        <v>93.3</v>
+        <v>88</v>
       </c>
       <c r="O15">
         <v>100</v>
@@ -3463,7 +3463,7 @@
         <v>100</v>
       </c>
       <c r="H16">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="I16">
         <v>100</v>
@@ -3481,7 +3481,7 @@
         <v>100</v>
       </c>
       <c r="N16">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="O16">
         <v>100</v>
@@ -3522,7 +3522,7 @@
         <v>100</v>
       </c>
       <c r="H17">
-        <v>86.7</v>
+        <v>88</v>
       </c>
       <c r="I17">
         <v>100</v>
@@ -3540,7 +3540,7 @@
         <v>100</v>
       </c>
       <c r="N17">
-        <v>86.7</v>
+        <v>88</v>
       </c>
       <c r="O17">
         <v>100</v>
@@ -3581,7 +3581,7 @@
         <v>100</v>
       </c>
       <c r="H18">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="I18">
         <v>100</v>
@@ -3599,7 +3599,7 @@
         <v>100</v>
       </c>
       <c r="N18">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="O18">
         <v>100</v>
@@ -3699,7 +3699,7 @@
         <v>100</v>
       </c>
       <c r="H20">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="I20">
         <v>100</v>
@@ -3717,7 +3717,7 @@
         <v>100</v>
       </c>
       <c r="N20">
-        <v>93.3</v>
+        <v>92</v>
       </c>
       <c r="O20">
         <v>100</v>
@@ -3817,7 +3817,7 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>93.3</v>
+        <v>94</v>
       </c>
       <c r="I22">
         <v>100</v>
@@ -3835,7 +3835,7 @@
         <v>100</v>
       </c>
       <c r="N22">
-        <v>93.3</v>
+        <v>94</v>
       </c>
       <c r="O22">
         <v>100</v>
@@ -3876,7 +3876,7 @@
         <v>100</v>
       </c>
       <c r="H23">
-        <v>86.7</v>
+        <v>84</v>
       </c>
       <c r="I23">
         <v>100</v>
@@ -3894,7 +3894,7 @@
         <v>100</v>
       </c>
       <c r="N23">
-        <v>86.7</v>
+        <v>84</v>
       </c>
       <c r="O23">
         <v>100</v>
@@ -3994,7 +3994,7 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I25">
         <v>100</v>
@@ -4012,7 +4012,7 @@
         <v>100</v>
       </c>
       <c r="N25">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="O25">
         <v>100</v>
@@ -4053,7 +4053,7 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>93.3</v>
+        <v>88</v>
       </c>
       <c r="I26">
         <v>100</v>
@@ -4071,7 +4071,7 @@
         <v>100</v>
       </c>
       <c r="N26">
-        <v>93.3</v>
+        <v>88</v>
       </c>
       <c r="O26">
         <v>100</v>
@@ -4112,7 +4112,7 @@
         <v>100</v>
       </c>
       <c r="H27">
-        <v>83.3</v>
+        <v>86</v>
       </c>
       <c r="I27">
         <v>100</v>
@@ -4130,7 +4130,7 @@
         <v>100</v>
       </c>
       <c r="N27">
-        <v>83.3</v>
+        <v>86</v>
       </c>
       <c r="O27">
         <v>100</v>
@@ -4381,7 +4381,7 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>8.5</v>
       </c>
       <c r="I5">
         <v>0</v>
